--- a/Week05_report.xlsx
+++ b/Week05_report.xlsx
@@ -199,7 +199,7 @@
     <t>Week: Week05</t>
   </si>
   <si>
-    <t>Generated: 2023-09-28 11:46:32 AM</t>
+    <t>Generated: 2023-09-28 04:28:32 PM</t>
   </si>
 </sst>
 </file>

--- a/Week05_report.xlsx
+++ b/Week05_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
   <si>
     <t>Student ID</t>
   </si>
@@ -190,7 +190,13 @@
     <t>Week05</t>
   </si>
   <si>
-    <t>Create Framer Site, Create a Project on Flutterflow, Create Paper Prototype, Create Social Media Profile Using CSS</t>
+    <t>Create Framer Site, Create A Snake Game, Create Paper Prototype, Create Social Media Profile Using CSS</t>
+  </si>
+  <si>
+    <t>Create A Snake Game</t>
+  </si>
+  <si>
+    <t>Create A Snake Game, Create Paper Prototype</t>
   </si>
   <si>
     <t>Pending</t>
@@ -199,7 +205,7 @@
     <t>Week: Week05</t>
   </si>
   <si>
-    <t>Generated: 2023-09-28 04:28:32 PM</t>
+    <t>Generated: 2023-09-30 11:21:49 AM</t>
   </si>
 </sst>
 </file>
@@ -572,7 +578,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="116.7109375" customWidth="1"/>
+    <col min="4" max="4" width="104.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -607,7 +613,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -624,7 +630,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -641,7 +647,7 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -655,10 +661,10 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -675,7 +681,7 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -692,7 +698,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -709,7 +715,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -726,7 +732,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -740,10 +746,10 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -757,10 +763,10 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -777,7 +783,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -794,7 +800,7 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -811,7 +817,7 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -828,7 +834,7 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -845,7 +851,7 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -862,7 +868,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -879,7 +885,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -896,7 +902,7 @@
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -913,7 +919,7 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -930,7 +936,7 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -947,7 +953,7 @@
         <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -964,7 +970,7 @@
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -981,7 +987,7 @@
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -998,7 +1004,7 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1015,7 +1021,7 @@
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1029,20 +1035,20 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Week05_report.xlsx
+++ b/Week05_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
   <si>
     <t>Student ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Completion Status</t>
   </si>
   <si>
+    <t>Streak</t>
+  </si>
+  <si>
     <t>PPP001</t>
   </si>
   <si>
@@ -205,7 +208,7 @@
     <t>Week: Week05</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 11:21:49 AM</t>
+    <t>Generated: 2023-09-30 12:19:52 PM</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,9 +583,10 @@
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="104.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,457 +602,538 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
       <c r="E27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Week05_report.xlsx
+++ b/Week05_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week05</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 12:19:52 PM</t>
+    <t>Generated: 2023-09-30 01:54:09 PM</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>

--- a/Week05_report.xlsx
+++ b/Week05_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
   <si>
     <t>Student ID</t>
   </si>
@@ -205,10 +205,13 @@
     <t>Pending</t>
   </si>
   <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>Week: Week05</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 01:54:09 PM</t>
+    <t>Generated: 2023-09-30 02:30:02 PM</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF007BFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,11 +282,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,20 +780,17 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1128,12 +1135,12 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Week05_report.xlsx
+++ b/Week05_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="65">
   <si>
     <t>Student ID</t>
   </si>
@@ -196,22 +196,19 @@
     <t>Create Framer Site, Create A Snake Game, Create Paper Prototype, Create Social Media Profile Using CSS</t>
   </si>
   <si>
-    <t>Create A Snake Game</t>
-  </si>
-  <si>
     <t>Create A Snake Game, Create Paper Prototype</t>
   </si>
   <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>Week: Week05</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 02:30:02 PM</t>
+    <t>Generated: 2023-10-02 04:25:00 PM</t>
   </si>
 </sst>
 </file>
@@ -620,20 +617,17 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -660,40 +654,34 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
+      <c r="E4" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -787,7 +775,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -804,7 +792,7 @@
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>62</v>
@@ -817,20 +805,17 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1037,20 +1022,17 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
+      <c r="E23" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1117,30 +1099,27 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Week05_report.xlsx
+++ b/Week05_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week05</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 04:25:00 PM</t>
+    <t>Generated: 2023-10-02 04:51:08 PM</t>
   </si>
 </sst>
 </file>

--- a/Week05_report.xlsx
+++ b/Week05_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week05</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 04:51:08 PM</t>
+    <t>Generated: 2023-10-02 05:14:50 PM</t>
   </si>
 </sst>
 </file>

--- a/Week05_report.xlsx
+++ b/Week05_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week05</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 05:14:50 PM</t>
+    <t>Generated: 2023-10-02 05:38:17 PM</t>
   </si>
 </sst>
 </file>

--- a/Week05_report.xlsx
+++ b/Week05_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week05</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 05:38:17 PM</t>
+    <t>Generated: 2023-10-03 11:47:27 AM</t>
   </si>
 </sst>
 </file>
